--- a/test/Argentina.xlsx
+++ b/test/Argentina.xlsx
@@ -511,12 +511,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Premios RAICES y Leloir</t>
+          <t>Premios RAICES y LELOIR</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Los premios RAICES están destinados a científicos/as, investigadores/as y tecnólogos/as argentinos/as que residen en el exterior y colaboran activamente con el fortalecimiento del Sistema Nacional de Ciencia, Tecnología e Innovación. Por su parte, los premios LELOIR están destinados a científicos/as, investigadores/as y tecnólogos/as extranjeras/os que han trabajado en el fortalecimiento de las capacidades científicas y tecnológicas de Argentina. Ambos galardones buscan reconocer y visibilizar las contribuciones con el sistema nacional de ciencia y estrechar lazos de cooperación internacional. ¿Hasta qué fecha se puede enviar nominaciones?12 de mayo de 2021¿Quiénes podrán ser ganadores de los PREMIOS RAICES y LELOIR?Los Premios RAICES están destinados a científicos/as, investigadores/as y tecnólogos/as argentinos/as que residen en el exterior y colaboran activamente con el fortalecimiento del sistema nacional de ciencia, tecnología e innovación.Los Premios LELOIR están destinados a científicos/as, investigadores/as y tecnólogos/as extranjero/as, que residan en la Argentina o en el exterior, y que hayan trabajado para el fortalecimiento de las capacidades científicas y tecnológicas de Argentina.¿Quiénes podrán nominar a los/as candidatos/as?Podrán enviar nominaciones a los/as coordinadores/as científicos de las Redes de Argentinos/as Investigadores/as, Científicos/as y Tecnólogos/as en el Exterior (Redes) del Programa RAICES y/o las máximas autoridades de las universidades e instituciones que integran el sistema nacional de ciencia.¿Qué deberán contener las nominaciones?La autoridad que nomina deberá remitir una nota conteniendo el nombre y apellido de los/as investigadores/as, científicos/as y/o tecnólogos/as postulados/as y un mail y teléfono de contacto de la persona nominada a [email protected].Luego de recibidas las postulaciones, la secretaria técnica de los Premios RAICES y Leloir contactará a los investigadores/as, científicos/as y/o tecnólogos/as postulados/as para solicitarles completen la información requerida y de este modo avanzar con el proceso establecido en la reglamentación de los premios.¿Cómo participar?Escribinos a [email protected].---</t>
+          <t>Los Premios RAICES están destinados a científicos/as, investigadores/as y tecnólogos/as argentinos/as que residen en el exterior y colaboran activamente con el fortalecimiento del Sistema Nacional de Ciencia, Tecnología e Innovación. Por su parte, los Premios LELOIR están destinados a científicos/as, investigadores/as y tecnólogos/as extranjeras/os que han trabajado en el fortalecimiento de las capacidades científicas y tecnológicas de Argentina. Ambos galardones buscan reconocer y visibilizar las contribuciones con el sistema nacional de ciencia y estrechar lazos de cooperación internacional. ¿Hasta qué fecha se puede enviar nominaciones?12 de mayo de 2021¿Quiénes podrán ser ganadores de los Premios RAICES y LELOIR?Los Premios RAICES están destinados a científicos/as, investigadores/as y tecnólogos/as argentinos/as que residen en el exterior y colaboran activamente con el fortalecimiento del sistema nacional de ciencia, tecnología e innovación.Los Premios LELOIR están destinados a científicos/as, investigadores/as y tecnólogos/as extranjero/as, que residan en la Argentina o en el exterior, y que hayan trabajado para el fortalecimiento de las capacidades científicas y tecnológicas de Argentina.¿Quiénes podrán nominar a los/as candidatos/as?Podrán enviar nominaciones a los/as coordinadores/as científicos de las Redes de Argentinos/as Investigadores/as, Científicos/as y Tecnólogos/as en el Exterior (Redes) del Programa RAICES y/o las máximas autoridades de las universidades e instituciones que integran el sistema nacional de ciencia.¿Qué deberán contener las nominaciones?La autoridad que nomina deberá remitir una nota conteniendo el nombre y apellido de los/as investigadores/as, científicos/as y/o tecnólogos/as postulados/as y un mail y teléfono de contacto de la persona nominada a [email protected].Luego de recibidas las postulaciones, la secretaria técnica de los Premios RAICES y LELOIR contactará a los investigadores/as, científicos/as y/o tecnólogos/as postulados/as para solicitarles completen la información requerida y de este modo avanzar con el proceso establecido en la reglamentación de los premios.¿Cómo participar?Escribinos a [email protected].---</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>El Ministerio de Ciencia, Tecnología e Innovación (MINCYT), junto con la Cámara de Comercio Argentino Israelí (CCAI) y la Embajada de Israel en la República Argentina, llama a la presentación de proyectos de innovación tecnológica en el marco de la “Distinción Argentino-Israelí en Innovación 2020”.La convocatoria tiene por objetivo promover la cooperación tecnológica entre empresas y emprendedores argentinos e israelíes por medio de la incorporación de conocimiento en el proceso productivo, para mejorar la calidad de vida de la sociedad y la competitividad de las empresas, y fomentar la colaboración del sector privado con los centros de investigación. En la presente edición se busca promover innovaciones en todas las áreas de la industria, con preponderancia en agrotecnología y salud, sin resultar excluyentes. Fecha de cierre9 de abril de 2021Podrán participar: emprendedores (cualquier persona o grupo de personas que estén vinculadas al mundo de la innovación mediante la invención, el diseño, la ingeniería, el emprendimiento, entre otras, con el fin de buscar nuevas ideas, soluciones, productos o procesos que necesitan ser mejorados o no existían) y empresas nacionales (micro, pequeñas, y medianas del sector industrial, comercial y de servicios, distinguidas en un marco jurídico como empresas individuales, societarias, cooperativas u otras organizaciones de economía social de mercado).Cómo participarA través del formulario en la página del concurso.Para más información, ingresá al archivo en el apartado Descargas.Contacto: [email protected]---</t>
+          <t>El Ministerio de Ciencia, Tecnología e Innovación (MINCYT), junto con la Cámara de Comercio Argentino Israelí (CCAI) y la Embajada de Israel en la República Argentina, llama a la presentación de proyectos de innovación tecnológica en el marco de la “Distinción Argentino-Israelí en Innovación 2020”.La convocatoria tiene por objetivo promover la cooperación tecnológica entre empresas y emprendedores argentinos e israelíes por medio de la incorporación de conocimiento en el proceso productivo, para mejorar la calidad de vida de la sociedad y la competitividad de las empresas, y fomentar la colaboración del sector privado con los centros de investigación. En la presente edición se busca promover innovaciones en todas las áreas de la industria, con preponderancia en agrotecnología y salud, sin resultar excluyentes. Fecha de cierre9 de abril de 2021Podrán participar: emprendedores (cualquier persona o grupo de personas que estén vinculadas al mundo de la innovación mediante la invención, el diseño, la ingeniería, el emprendimiento, entre otras, con el fin de buscar nuevas ideas, soluciones, productos o procesos que necesitan ser mejorados o no existían) y empresas nacionales (micro, pequeñas, y medianas del sector industrial, comercial y de servicios, distinguidas en un marco jurídico como empresas individuales, societarias, cooperativas u otras organizaciones de economía social de mercado).Cómo participarA través del formulario en la página del concurso.Para más información, ingresá al archivo en el apartado Descargas.Contacto: [email protected]raelinnovationawards.org---</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -614,7 +614,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">El Ministerio de Ciencia, Tecnología e Innovación de la Nación (MINCYT), con el apoyo de Merck, Sharp &amp; Dome (MSD) Argentina S.R.L., convoca a emprendedores y a empresas de base tecnológica (EBT), que cuenten con un proyecto en el campo de la salud, a presentar propuestas que generen impacto en la sociedad. Fecha de cierre11 de marzo de 2021El Concurso Innova Salud se propone estimular el desarrollo científico, tecnológico y productivo en el país, al aportar visibilidad a la innovación en medicina y potenciar la articulación público-privada en la industria farmacéutica.Las áreas de interés son:» Oncología;» Infectología;» Prevención / Vacunas;» Biotecnología;» Microbiología.Cómo participarEl plazo para la presentación de Propuestas comienza el 11 de febrero de 2021 y finaliza el 11 de marzo de 2021, inclusive.Accedé a los detalles del Concurso, aquí.---Te invitamos a participar del  que premiará proyectos de base científica y/o tecnológica en el campo de la salud que generen valor a la sociedad. Esta iniciativa es organizada por la Subsecretaría de Políticas en Ciencia, Tecnología e Innovación con el apoyo de MSD.Del 11 de febrero al 11 de marzo de 2021.Los proyectos se deberán presentar en alguna de las siguientes áreas de interés:y deberán contemplar la utilización de alguna de las siguientes tecnologías transversales:: Dirección Nacional de Desarrollo Tecnológico e Innovación </t>
+          <t xml:space="preserve">El Ministerio de Ciencia, Tecnología e Innovación de la Nación (MINCYT), con el apoyo de Merck, Sharp &amp; Dome (MSD) Argentina S.R.L., convoca a emprendedores y a empresas de base tecnológica (EBT), que cuenten con un proyecto en el campo de la salud, a presentar propuestas que generen impacto en la sociedad. Fecha de cierre11 de marzo de 2021El Concurso Innova Salud se propone estimular el desarrollo científico, tecnológico y productivo en el país, al aportar visibilidad a la innovación en medicina y potenciar la articulación público-privada en la industria farmacéutica.Las áreas de interés son:» Oncología;» Infectología;» Prevención / Vacunas;» Biotecnología;» Microbiología.Cómo participarEl plazo para la presentación de Propuestas comienza el 11 de febrero de 2021 y finaliza el 11 de marzo de 2021, inclusive.Accedé a los detalles del Concurso, aquí.---El  premiará proyectos de base científica y/o tecnológica en el campo de la salud que generen valor a la sociedad. Esta iniciativa es organizada por la Subsecretaría de Políticas en Ciencia, Tecnología e Innovación con el apoyo de MSD.Las inscripciones estuvieron abiertas del 11 de febrero al 11 de marzo de 2021.Los proyectos debían presentarse en alguna de las siguientes áreas de interés:y debían contemplar la utilización de alguna de las siguientes tecnologías transversales:: Dirección Nacional de Desarrollo Tecnológico e Innovación </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>El programa ImpaCT.AR tiene el propósito de promover proyectos de investigación y desarrollo destinados a brindar apoyo a organismos públicos ─en todos sus niveles─ en la búsqueda de soluciones a desafíos de interés público, que requieran del conocimiento científico o el desarrollo tecnológico para su resolución, y así generar un impacto positivo en el desarrollo local, regional y nacional. Se propone, de esta manera, fortalecer el impacto de la ciencia, la tecnología y la innovación en la construcción y aplicación de políticas públicas. Modalidad Ventanilla permanenteLas presentaciones podrán realizarse durante todo el año y serán evaluadas por la Comisión Asesora de forma periódica.Esta convocatoria está orientada a promover iniciativas conjuntas entre instituciones científico-tecnológicas y organismos públicos como Ministerios Nacionales, Empresas Públicas, Gobiernos Provinciales, Gobiernos Municipales, entre otros.A través del programa ImpaCT.AR, el Ministerio de Ciencia, Tecnología e Innovación (MINCyT) busca fortalecer e impulsar uno de sus roles clave: la articulación e impacto en la resolución de desafíos que requieran ciencia y tecnología por parte de organismos del Estado, para contribuir a la planificación del desarrollo local, regional y nacional.Más informaciónAccedé a los detalles de la convocatoria.---El programa ImpaCT.AR tiene el propósito de promover proyectos de investigación y desarrollo destinados a brindar apoyo a organismos públicos ─en todos sus niveles─ en la búsqueda de soluciones a desafíos de interés público, que requieran del conocimiento científico o el desarrollo tecnológico para su resolución, y así generar un impacto positivo en el desarrollo local, regional y nacional.Se propone, de esta manera, fortalecer el impacto de la ciencia, la tecnología y la innovación en la construcción y aplicación de políticas públicas.Esta convocatoria está orientada a promover iniciativas conjuntas entre instituciones científico-tecnológicas y organismos públicos como Ministerios Nacionales, Empresas Públicas, Gobiernos Provinciales, Gobiernos Municipales, entre otros.A través del programa ImpaCT.AR, el Ministerio de Ciencia, Tecnología e Innovación (MINCyT) busca fortalecer e impulsar uno de sus roles clave: la articulación e impacto en la resolución de desafíos que requieran ciencia y tecnología por parte de organismos del Estado, para contribuir a la planificación del desarrollo local, regional y nacional.Promover proyectos de investigación y desarrollo orientados a apoyar a organismos públicos del Estado a encontrar soluciones a desafíos que requieran de conocimiento científico o desarrollo tecnológico para su resolución, y que impacten positivamente en el desarrollo del país.● Fomentar la articulación entre el MINCyT y el SNCTI con organismos públicos, como Ministerios Nacionales, Empresas Públicas, Gobiernos Provinciales, Gobiernos Municipales, entre otros, a través de proyectos de investigación y desarrollo orientados.● Contribuir, a partir del conocimiento científico y el desarrollo tecnológico existente en nuestro país, a la solución de desafíos de interés público, planteados por organismos estatales en todos sus niveles.● Fortalecer el impacto de la ciencia, la tecnología y la innovación en la construcción y aplicación de políticas públicas que contribuyan al desarrollo social, productivo y ambiental de nuestro país.Instancias del programa:1) Los desafíos podrán presentarse por los destinatarios (Ministerios Nacionales, Empresas Públicas, Gobiernos Provinciales, Gobiernos Municipales u otros organismos públicos) durante todo el año (modalidad ventanilla permanente) y serán evaluadas por la Comisión Asesora de forma periódica.2) El MINCYT analizará la admisibilidad del desafío propuesto en virtud de que requiera de desarrollos científico-tecnológicos para su resolución, así como de su pertinencia en relación a las bases de la presente convocatoria.3) Una vez admitido el desafío se publicará en la página web del Programa a los efectos de promover la presentación de aquellas instituciones que consideren que pueden dar cumplimiento a las demandas.4) Una vez admitido el desafío, el/los grupos de investigación y desarrollo, deberán presentar los proyectos de investigación y desarrollo orientados a la resolución de los desafíos de interés público que hayan sido admitidos al Programa.5) Cada proyecto será evaluado por una Comisión Asesora designada por el Programa, a fin de analizar la viabilidad del proyecto de investigación y desarrollo propuesto, a través del análisis de la adecuación e impacto de la solución propuesta para atender el desafío planteado, su calidad y factibilidad de aplicación, así como la adecuación económica del presupuesto.Para las instituciones que cuenten con GEDO, la propuesta debe ser enviada por el Sistema de Gestión Documental Electrónica (GDE) a la SUBSECRETARÍA DE COORDINACIÓN INSTITUCIONAL (Repartición: SSCI#MCT. Sector: PVD) y por correo electrónico a .Para las instituciones que NO cuenten con GEDO, la propuesta debe ser enviada vía , por medio de la plataforma , y por correo electrónico a .La presentación de desafíos NO tiene fechas delimitadas ya que es una convocatoria de modalidad de ventanilla permanente. A medida que los desafíos se vayan publicando, se irán estableciendo plazos para la presentación de soluciones a cada una las demandas.Las consultas sólo podrán efectuarse por correo electrónico a .Las presentaciones son de carácter institucional debiendo estar firmadas por la máxima autoridad de la Institución que presenta el desafío, o en quien esta delegue.</t>
+          <t>El programa ImpaCT.AR tiene el propósito de promover proyectos de investigación y desarrollo destinados a brindar apoyo a organismos públicos ─en todos sus niveles─ en la búsqueda de soluciones a desafíos de interés público, que requieran del conocimiento científico o el desarrollo tecnológico para su resolución, y así generar un impacto positivo en el desarrollo local, regional y nacional. Se propone, de esta manera, fortalecer el impacto de la ciencia, la tecnología y la innovación en la construcción y aplicación de políticas públicas. Modalidad Ventanilla permanenteLas presentaciones podrán realizarse durante todo el año y serán evaluadas por la Comisión Asesora de forma periódica.Esta convocatoria está orientada a promover iniciativas conjuntas entre instituciones científico-tecnológicas y organismos públicos como Ministerios Nacionales, Empresas Públicas, Gobiernos Provinciales, Gobiernos Municipales, entre otros.A través del programa ImpaCT.AR, el Ministerio de Ciencia, Tecnología e Innovación (MINCyT) busca fortalecer e impulsar uno de sus roles clave: la articulación e impacto en la resolución de desafíos que requieran ciencia y tecnología por parte de organismos del Estado, para contribuir a la planificación del desarrollo local, regional y nacional.Más informaciónAccedé a los detalles de la convocatoria.---El programa ImpaCT.AR tiene el propósito de promover proyectos de investigación y desarrollo destinados a brindar apoyo a organismos públicos ─en todos sus niveles─ en la búsqueda de soluciones a desafíos de interés público, que requieran del conocimiento científico o el desarrollo tecnológico para su resolución, y así generar un impacto positivo en el desarrollo local, regional y nacional.Se propone, de esta manera, fortalecer el impacto de la ciencia, la tecnología y la innovación en la construcción y aplicación de políticas públicas.Esta convocatoria está orientada a promover iniciativas conjuntas entre instituciones científico-tecnológicas y organismos públicos como Ministerios Nacionales, Empresas Públicas, Gobiernos Provinciales, Gobiernos Municipales, entre otros.A través del programa ImpaCT.AR, el Ministerio de Ciencia, Tecnología e Innovación (MINCyT) busca fortalecer e impulsar uno de sus roles clave: la articulación e impacto en la resolución de desafíos que requieran ciencia y tecnología por parte de organismos del Estado, para contribuir a la planificación del desarrollo local, regional y nacional.Promover proyectos de investigación y desarrollo orientados a apoyar a organismos públicos del Estado a encontrar soluciones a desafíos que requieran de conocimiento científico o desarrollo tecnológico para su resolución, y que impacten positivamente en el desarrollo del país.● Fomentar la articulación entre el MINCyT y el SNCTI con organismos públicos, como Ministerios Nacionales, Empresas Públicas, Gobiernos Provinciales, Gobiernos Municipales, entre otros, a través de proyectos de investigación y desarrollo orientados.● Contribuir, a partir del conocimiento científico y el desarrollo tecnológico existente en nuestro país, a la solución de desafíos de interés público, planteados por organismos estatales en todos sus niveles.● Fortalecer el impacto de la ciencia, la tecnología y la innovación en la construcción y aplicación de políticas públicas que contribuyan al desarrollo social, productivo y ambiental de nuestro país.Instancias del programa:1) Los desafíos podrán presentarse por los destinatarios (Ministerios Nacionales, Empresas Públicas, Gobiernos Provinciales, Gobiernos Municipales u otros organismos públicos) durante todo el año (modalidad ventanilla permanente) y serán evaluadas por la Comisión Asesora de forma periódica.2) El MINCYT analizará la admisibilidad del desafío propuesto en virtud de que requiera de desarrollos científico-tecnológicos para su resolución, así como de su pertinencia en relación a las bases de la presente convocatoria.3) Una vez admitido el desafío se publicará en la página web del Programa a los efectos de promover la presentación de aquellas instituciones que consideren que pueden dar cumplimiento a las demandas.4) Una vez admitido el desafío, el/los grupos de investigación y desarrollo, deberán presentar los proyectos de investigación y desarrollo orientados a la resolución de los desafíos de interés público que hayan sido admitidos al Programa.5) Cada proyecto será evaluado por una Comisión Asesora designada por el Programa, a fin de analizar la viabilidad del proyecto de investigación y desarrollo propuesto, a través del análisis de la adecuación e impacto de la solución propuesta para atender el desafío planteado, su calidad y factibilidad de aplicación, así como la adecuación económica del presupuesto.Para las instituciones que cuenten con GEDO, la propuesta debe ser enviada por el Sistema de Gestión Documental Electrónica (GDE) a la SUBSECRETARÍA DE COORDINACIÓN INSTITUCIONAL (Repartición: SSCI#MCT. Sector: PVD) y por correo electrónico a .Para las instituciones que NO cuenten con GEDO, la propuesta debe ser enviada vía , por medio de la plataforma , y por correo electrónico a .La presentación de desafíos NO tiene fechas delimitadas ya que es una convocatoria de modalidad de ventanilla permanente. A medida que los desafíos se vayan publicando, se irán estableciendo plazos para la presentación de soluciones a cada una las demandas.Las consultas sólo podrán efectuarse por correo electrónico a .Las presentaciones son de carácter institucional debiendo estar firmadas por la máxima autoridad de la Institución que presenta el desafío, o en quien esta delegue.: El presupuesto solicitado debe sin excepción adecuarse estrictamente a los montos necesarios para la resolución o abordaje del desafío específicamente. No deben solicitar el presupuesto máximo permitido, sino el presupuesto necesario. El programa “ImpaCT.AR Ciencia y Tecnología” a través de su Consejo Asesor evaluará los presupuestos para analizar su adecuación al plan de trabajo propuesto.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -940,7 +940,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -3496,7 +3496,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
